--- a/InputFiles/TC03_Canine-COTC022_StudyParticipation-SingleStudy.xlsx
+++ b/InputFiles/TC03_Canine-COTC022_StudyParticipation-SingleStudy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0302\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0032FBC7-9F6E-4D52-A622-838274587706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88450428-722A-4B90-A4C0-ABA349D5875C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +208,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,9 +241,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -556,101 +564,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.7265625" customWidth="1"/>
-    <col min="3" max="3" width="75.7265625" customWidth="1"/>
-    <col min="4" max="4" width="70.26953125" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="391.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
